--- a/目前版本/會議名稱.xlsx
+++ b/目前版本/會議名稱.xlsx
@@ -1,66 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\黃萱\Desktop\商管程\期末專案\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C3F182-6577-4C8F-BEFA-E7E32B2FED82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1596" yWindow="72" windowWidth="10140" windowHeight="12108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1600" yWindow="460" windowWidth="10140" windowHeight="12100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="會議" sheetId="1" r:id="rId1"/>
+    <sheet name="會議" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>unfinished</t>
-  </si>
-  <si>
-    <t>eee</t>
-  </si>
-  <si>
-    <t>ggg</t>
-  </si>
-  <si>
-    <t>unfinished</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -79,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -359,42 +385,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>商管程一</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>商管程二</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>unfinished</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>個經報告</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>unfinished</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>總經報告</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>unfinished</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>統計專題</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>unfinished</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
 </worksheet>
 </file>
--- a/目前版本/會議名稱.xlsx
+++ b/目前版本/會議名稱.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B1"/>
@@ -458,6 +458,30 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>統計作業</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>unfinished</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>冬至吃湯圓</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>unfinished</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>

--- a/目前版本/會議名稱.xlsx
+++ b/目前版本/會議名稱.xlsx
@@ -3,25 +3,32 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1600" yWindow="460" windowWidth="10140" windowHeight="12100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12650" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="會議" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -43,15 +50,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="一般" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -390,13 +397,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="A1" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -461,7 +468,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>統計作業</t>
+          <t>部門會議</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -473,7 +480,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>冬至吃湯圓</t>
+          <t>社團開會</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -482,8 +489,56 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>之夜驗收</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>unfinished</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>童話派對</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>unfinished</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>排球隊聚</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>unfinished</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>畢業旅行</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>unfinished</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="1200" orientation="portrait" paperSize="9" verticalDpi="1200"/>
 </worksheet>
 </file>
--- a/目前版本/會議名稱.xlsx
+++ b/目前版本/會議名稱.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12650" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6648" yWindow="252" windowWidth="11796" windowHeight="12108" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="會議" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="商管程" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,15 +51,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="一般" xfId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -397,126 +398,171 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>商管程一</t>
+          <t>個經報告</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>unfinished</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>meeting</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>商管程二</t>
+          <t>商管程</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>unfinished</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>folder</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>個經報告</t>
+          <t>總經報告</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>unfinished</t>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>meeting</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>總經報告</t>
+          <t>統計專題</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>unfinished</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>meeting</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>統計專題</t>
+          <t>部門會議</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>unfinished</t>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>meeting</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>部門會議</t>
+          <t>社團開會</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>unfinished</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>meeting</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>社團開會</t>
+          <t>之夜驗收</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>unfinished</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>meeting</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>之夜驗收</t>
+          <t>童話派對</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>unfinished</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>meeting</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>童話派對</t>
+          <t>排球隊聚</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>unfinished</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>meeting</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>排球隊聚</t>
+          <t>畢業旅行</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -524,21 +570,82 @@
           <t>unfinished</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>畢業旅行</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>unfinished</t>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>meeting</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" paperSize="9" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>商管程一</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>商管程二</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>unfinished</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>商管程三</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>unfinished</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>商管討論</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
 </worksheet>
 </file>